--- a/実験/自作動的ロードバランサー比較実験.xlsx
+++ b/実験/自作動的ロードバランサー比較実験.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuchan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1821086\GitHub\1821086_matsuo_thesis\実験\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>機器名</t>
     <rPh sb="0" eb="2">
@@ -64,9 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Raspberry Pi 4B 2G</t>
-  </si>
-  <si>
     <t>自作した動的ロードバランサ</t>
     <rPh sb="0" eb="2">
       <t>ジサク</t>
@@ -84,10 +81,6 @@
     <rPh sb="2" eb="4">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Raspberry Pi 4B 2G</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -305,11 +298,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Raspberry Pi 4B 4G</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1759,24 +1756,24 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1787,41 +1784,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1838,97 +1835,97 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/実験/自作動的ロードバランサー比較実験.xlsx
+++ b/実験/自作動的ロードバランサー比較実験.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1821086\GitHub\1821086_matsuo_thesis\実験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuchan\Documents\GitHub\1821086_matsuo_thesis\実験\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>機器名</t>
     <rPh sb="0" eb="2">
@@ -60,16 +61,6 @@
     <t>台数</t>
     <rPh sb="0" eb="2">
       <t>ダイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自作した動的ロードバランサ</t>
-    <rPh sb="0" eb="2">
-      <t>ジサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドウテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,11 +293,56 @@
     <t>Raspberry Pi 4B 4G</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>WEBサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raspbian</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apache</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nginx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計・開発した動的ロードバランサ</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nginx</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,12 +385,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -366,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +425,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1753,72 +1813,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="M11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3">
         <v>3</v>
       </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1833,99 +1916,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1937,4 +2022,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H4:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>